--- a/tracer.xlsx
+++ b/tracer.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Petrik\.repository\oceanohelper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AAF460E-8CB3-42A4-B5D3-DA4741AEFD86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13583BFC-C867-4FCC-BA72-16835CC67804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$B$21</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -351,7 +354,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
